--- a/ssiex2t3s4_play/LPF_0.5.xlsx
+++ b/ssiex2t3s4_play/LPF_0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jibik\source\repos\ex3-4\ssiex2t3s4_play\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{737B30AF-A4EC-42C9-82C4-F6AC0E9F8AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3EFCDC24-6D3C-4E32-9291-E4E322E716CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
@@ -692,12 +692,14 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>平滑化前</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4308,13 +4310,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4687-46F7-AB53-5213C48FBF66}"/>
+              <c16:uniqueId val="{00000000-8DDC-4CE5-AE54-E7106F509C36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>平滑化後</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -7927,7 +7932,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4687-46F7-AB53-5213C48FBF66}"/>
+              <c16:uniqueId val="{00000001-8DDC-4CE5-AE54-E7106F509C36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7939,14 +7944,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="325820000"/>
-        <c:axId val="321372080"/>
+        <c:axId val="1732673263"/>
+        <c:axId val="1728418879"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="325820000"/>
+        <c:axId val="1732673263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7964,6 +7970,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8001,12 +8067,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321372080"/>
+        <c:crossAx val="1728418879"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321372080"/>
+        <c:axId val="1728418879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8026,6 +8092,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>手の並進加速度の </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>z </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>成分</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8063,7 +8192,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325820000"/>
+        <c:crossAx val="1732673263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8710,23 +8839,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>575362</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147187</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D3ECCE-3009-42FA-9F56-7A238035F520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8797AD96-F3B7-4251-84D2-F51D0E1DE300}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9047,7 +9176,7 @@
   <dimension ref="A1:G597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="2" sqref="A1:A1048576 C1:C1048576 F1:F1048576"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
